--- a/doc/student2.xlsx
+++ b/doc/student2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\www\tylw\demo\PHPEcxel\my\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\www\tylw\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>年级</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -264,6 +264,35 @@
   <si>
     <t>周润发</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业2</t>
+  </si>
+  <si>
+    <t>专业3</t>
+  </si>
+  <si>
+    <t>专业4</t>
+  </si>
+  <si>
+    <t>专业5</t>
+  </si>
+  <si>
+    <t>专业6</t>
+  </si>
+  <si>
+    <t>专业7</t>
+  </si>
+  <si>
+    <t>专业8</t>
   </si>
 </sst>
 </file>
@@ -650,20 +679,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Simple"/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -677,19 +706,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>2011</v>
       </c>
@@ -702,20 +734,23 @@
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>32012929291</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2011</v>
       </c>
@@ -729,19 +764,22 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>23231123121</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2011</v>
       </c>
@@ -755,19 +793,22 @@
         <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2011</v>
       </c>
@@ -781,19 +822,22 @@
         <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2011</v>
       </c>
@@ -807,19 +851,22 @@
         <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
@@ -833,19 +880,22 @@
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2011</v>
       </c>
@@ -859,19 +909,22 @@
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2011</v>
       </c>
@@ -885,15 +938,18 @@
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
